--- a/CPSC471/Assignments/A2.xlsx
+++ b/CPSC471/Assignments/A2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="26775" windowHeight="13050"/>
+    <workbookView xWindow="480" yWindow="156" windowWidth="23256" windowHeight="13056"/>
   </bookViews>
   <sheets>
     <sheet name="Question 1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="89">
   <si>
     <t>SSN</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Address</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>ShipName</t>
   </si>
   <si>
-    <t>TimeStamp</t>
-  </si>
-  <si>
     <t>Longitude</t>
   </si>
   <si>
@@ -256,6 +250,39 @@
   </si>
   <si>
     <t>TeachSSN</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>FName</t>
+  </si>
+  <si>
+    <t>MInit</t>
+  </si>
+  <si>
+    <t>LName</t>
+  </si>
+  <si>
+    <t>AddressNo</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>AptNo</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Zip</t>
   </si>
 </sst>
 </file>
@@ -325,15 +352,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>33769</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>443344</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>67540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -351,8 +378,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7667625" y="209550"/>
-          <a:ext cx="5314950" cy="6629400"/>
+          <a:off x="7570642" y="455467"/>
+          <a:ext cx="5473411" cy="6276109"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1553,16 +1580,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1580,8 +1607,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9134475" y="0"/>
-          <a:ext cx="7905750" cy="6362700"/>
+          <a:off x="7343775" y="28575"/>
+          <a:ext cx="8020050" cy="6048375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2420,29 +2447,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="9" width="18.42578125" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="5" width="18.44140625" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="9" width="18.44140625" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2453,280 +2480,301 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>81</v>
+      </c>
+      <c r="F2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
+      <c r="C5" t="s">
         <v>55</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>56</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>57</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
+      <c r="B8" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
-        <v>76</v>
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
         <v>5</v>
       </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
         <v>10</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>11</v>
       </c>
-      <c r="C23" t="s">
-        <v>12</v>
-      </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
         <v>14</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>15</v>
       </c>
-      <c r="C26" t="s">
-        <v>16</v>
-      </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
         <v>18</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>19</v>
-      </c>
-      <c r="C29" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" t="s">
         <v>23</v>
       </c>
-      <c r="B32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" t="s">
-        <v>24</v>
-      </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="B53" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2738,162 +2786,166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E26"/>
+  <dimension ref="B1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="1" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="8" width="18.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="2:6">
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="2:5">
-      <c r="B2" s="2" t="s">
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="2" t="s">
+      <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:6">
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:6">
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:6">
       <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="F14" t="s">
         <v>37</v>
       </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="E14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2903,7 +2955,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
